--- a/xlsx/_baidu_钢铁是怎样炼成的_intext.xlsx
+++ b/xlsx/_baidu_钢铁是怎样炼成的_intext.xlsx
@@ -20,7 +20,7 @@
     <t>钢铁是怎样炼成的</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/view/11445557.htm</t>
+    <t>https://baike.baidu.com/view/11373546.htm</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91%EF%BC%9A%E5%A4%9A%E4%B9%89%E8%AF%8D</t>
